--- a/StructureDefinition-sara-alert-observation.xlsx
+++ b/StructureDefinition-sara-alert-observation.xlsx
@@ -1599,47 +1599,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.49609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="101.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="109.91015625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-sara-alert-observation.xlsx
+++ b/StructureDefinition-sara-alert-observation.xlsx
@@ -1599,47 +1599,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.49609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.3515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="101.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="109.91015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-sara-alert-observation.xlsx
+++ b/StructureDefinition-sara-alert-observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="459">
   <si>
     <t>Path</t>
   </si>
@@ -628,6 +628,9 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -671,6 +674,14 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
@@ -702,10 +713,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://saraalert.org/ValueSet/SaraAlertLabType</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -865,7 +873,8 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>This value must be specified in the format YYYY-MM-DDThh:mm:ss.sss+zz:zz, but note that only
+YYYY-MM-DD will be used by the system. The remainder will be ignored.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -936,7 +945,10 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>valueString</t>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://saraalert.org/ValueSet/SaraAlertLabResult</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1397,6 +1409,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1600,7 +1618,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.5" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -4152,7 +4170,7 @@
         <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>45</v>
@@ -4167,13 +4185,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4206,27 +4224,27 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4234,13 +4252,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4249,19 +4267,19 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4271,7 +4289,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>45</v>
@@ -4289,10 +4307,10 @@
         <v>135</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4310,7 +4328,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4334,22 +4352,22 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4359,7 +4377,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
@@ -4368,19 +4386,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4405,13 +4423,11 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4429,7 +4445,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>55</v>
@@ -4444,27 +4460,27 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4487,19 +4503,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4548,7 +4564,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4563,19 +4579,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4583,7 +4599,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4606,16 +4622,16 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4665,7 +4681,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4686,13 +4702,13 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4700,11 +4716,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4723,19 +4739,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4784,7 +4800,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4799,19 +4815,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4819,15 +4835,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>55</v>
@@ -4842,19 +4858,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4891,17 +4907,17 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4916,19 +4932,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4936,17 +4952,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -4961,19 +4977,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5022,7 +5038,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5037,27 +5053,27 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5071,7 +5087,7 @@
         <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5083,13 +5099,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5139,7 +5155,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5160,13 +5176,13 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5174,7 +5190,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5197,17 +5213,17 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5256,7 +5272,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5271,19 +5287,19 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5291,7 +5307,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5299,7 +5315,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>55</v>
@@ -5314,19 +5330,19 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5363,17 +5379,17 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5382,7 +5398,7 @@
         <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5391,34 +5407,34 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>55</v>
@@ -5433,19 +5449,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5470,13 +5486,11 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5494,7 +5508,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5503,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>67</v>
@@ -5512,24 +5526,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5552,19 +5566,19 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5592,10 +5606,10 @@
         <v>113</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5613,7 +5627,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5622,7 +5636,7 @@
         <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>67</v>
@@ -5637,7 +5651,7 @@
         <v>154</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5648,11 +5662,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5671,19 +5685,19 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5711,10 +5725,10 @@
         <v>113</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5732,7 +5746,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5750,24 +5764,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5790,19 +5804,19 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5851,7 +5865,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5872,10 +5886,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5886,7 +5900,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5909,16 +5923,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5947,10 +5961,10 @@
         <v>121</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5968,7 +5982,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5986,24 +6000,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6026,19 +6040,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6066,10 +6080,10 @@
         <v>121</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6087,7 +6101,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6108,10 +6122,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6122,7 +6136,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6145,16 +6159,16 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6204,7 +6218,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6222,24 +6236,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6262,16 +6276,16 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6321,7 +6335,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6339,24 +6353,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6379,19 +6393,19 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6440,7 +6454,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6452,7 +6466,7 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6461,10 +6475,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6475,7 +6489,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6590,7 +6604,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6707,11 +6721,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6733,10 +6747,10 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>78</v>
@@ -6791,7 +6805,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6826,7 +6840,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6849,13 +6863,13 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6906,7 +6920,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6915,7 +6929,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -6927,10 +6941,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6941,7 +6955,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6964,13 +6978,13 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7021,7 +7035,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7030,7 +7044,7 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7042,10 +7056,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7056,7 +7070,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7079,19 +7093,19 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7119,10 +7133,10 @@
         <v>135</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7140,7 +7154,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7158,13 +7172,13 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7175,7 +7189,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7198,19 +7212,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7238,10 +7252,10 @@
         <v>121</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7259,7 +7273,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7277,13 +7291,13 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7294,7 +7308,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7317,17 +7331,17 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7376,7 +7390,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7400,7 +7414,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7411,7 +7425,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7437,10 +7451,10 @@
         <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7491,7 +7505,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7512,10 +7526,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7526,7 +7540,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7549,16 +7563,16 @@
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7608,7 +7622,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7629,10 +7643,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7643,7 +7657,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7666,16 +7680,16 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7725,7 +7739,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7746,10 +7760,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7760,7 +7774,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7783,19 +7797,19 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7844,7 +7858,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7865,10 +7879,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7879,7 +7893,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7994,7 +8008,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8111,11 +8125,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8137,10 +8151,10 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>78</v>
@@ -8195,7 +8209,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8230,7 +8244,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8253,19 +8267,19 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8293,10 +8307,10 @@
         <v>121</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>219</v>
+        <v>443</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8314,7 +8328,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>55</v>
@@ -8332,16 +8346,16 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8349,7 +8363,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8372,19 +8386,19 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8433,7 +8447,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8451,24 +8465,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8491,19 +8505,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8531,10 +8545,10 @@
         <v>113</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8552,7 +8566,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8561,7 +8575,7 @@
         <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>67</v>
@@ -8576,7 +8590,7 @@
         <v>154</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8587,11 +8601,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8610,19 +8624,19 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8650,10 +8664,10 @@
         <v>113</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8671,7 +8685,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8689,24 +8703,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8732,16 +8746,16 @@
         <v>45</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8790,7 +8804,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8811,10 +8825,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-sara-alert-observation.xlsx
+++ b/StructureDefinition-sara-alert-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:24:04-04:00</t>
+    <t>2021-10-06T18:59:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sara-alert-observation.xlsx
+++ b/StructureDefinition-sara-alert-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T18:59:21-05:00</t>
+    <t>2021-12-01T10:26:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
